--- a/img/Test Results.xlsx
+++ b/img/Test Results.xlsx
@@ -11,18 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Environment</t>
   </si>
   <si>
-    <t>Tree Depth</t>
-  </si>
-  <si>
-    <t>Test Instances</t>
-  </si>
-  <si>
-    <t>Matched Predictions</t>
+    <t>Min Impurity Decrease</t>
+  </si>
+  <si>
+    <t>Tree Max Depth</t>
+  </si>
+  <si>
+    <t>Instances Checked</t>
+  </si>
+  <si>
+    <t>Instances Matched</t>
   </si>
   <si>
     <t>Accuracy (%)</t>
@@ -31,28 +34,10 @@
     <t>CartPole-v1</t>
   </si>
   <si>
-    <t>20 (full)</t>
-  </si>
-  <si>
-    <t>5 (truncated)</t>
-  </si>
-  <si>
-    <t>4 (truncated)</t>
-  </si>
-  <si>
-    <t>3 (truncated)</t>
-  </si>
-  <si>
     <t>FrozenLake-v0</t>
   </si>
   <si>
-    <t>2 (full)</t>
-  </si>
-  <si>
     <t>SimpleMaze-v0</t>
-  </si>
-  <si>
-    <t>5 (full)</t>
   </si>
   <si>
     <t>SimpleMaze-v1 5x5</t>
@@ -62,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -73,6 +58,12 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -112,23 +103,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -351,147 +345,142 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.25"/>
+    <col customWidth="1" min="2" max="2" width="20.38"/>
+    <col customWidth="1" min="3" max="3" width="15.63"/>
     <col customWidth="1" min="4" max="4" width="18.5"/>
+    <col customWidth="1" min="5" max="5" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>19216.0</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E8" si="1">D2/C2*100</f>
-        <v>96.08</v>
+      <c r="B2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>19270.0</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F6" si="1">E2/D2*100</f>
+        <v>96.35</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>18008.0</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="1"/>
+        <v>90.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>18333.0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>91.665</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>18047.0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>90.235</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>17919.0</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>89.595</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="16">
-      <c r="B16" s="3"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/img/Test Results.xlsx
+++ b/img/Test Results.xlsx
@@ -385,11 +385,11 @@
         <v>20000.0</v>
       </c>
       <c r="E2" s="5">
-        <v>19270.0</v>
+        <v>19290.0</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F6" si="1">E2/D2*100</f>
-        <v>96.35</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="3">
